--- a/Tests documentation.xlsx
+++ b/Tests documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\gmail_autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7511F9-47FA-472C-91B9-335DB8FEACA5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349F6C57-2904-4180-A711-B1CB2F0AA927}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4470" activeTab="1" xr2:uid="{BC5D880A-6F33-4761-B5ED-4973F1631F69}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4470" xr2:uid="{BC5D880A-6F33-4761-B5ED-4973F1631F69}"/>
   </bookViews>
   <sheets>
     <sheet name="Test strategy" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="133">
   <si>
     <t>ID</t>
   </si>
@@ -130,9 +130,6 @@
     <t>Проверить кнопку Terms</t>
   </si>
   <si>
-    <t>Use 8 or more characters with a mix of letters, numbers &amp; symbols</t>
-  </si>
-  <si>
     <t>Проверить кнопку Forgot email</t>
   </si>
   <si>
@@ -422,6 +419,12 @@
   </si>
   <si>
     <t>Проверка функции Show password</t>
+  </si>
+  <si>
+    <t>Более 8 символов</t>
+  </si>
+  <si>
+    <t>Буквы, цифры,  символы</t>
   </si>
 </sst>
 </file>
@@ -539,17 +542,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,20 +575,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -913,751 +916,751 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCAA3B08-2193-4B10-B63B-B971C6D552F4}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="19" style="25" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="38" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" style="21" customWidth="1"/>
+    <col min="9" max="9" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="G2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
+      <c r="E4" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+      <c r="E6" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="D7" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
+      <c r="I7" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
+      <c r="I8" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="20" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
+      <c r="I10" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
+      <c r="E11" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="16" t="s">
+      <c r="E12" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="H12" s="19"/>
+      <c r="I12" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
+      <c r="E13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="16" t="s">
-        <v>84</v>
+      <c r="E14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
+      <c r="E15" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
+      <c r="E16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="C18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="20" t="s">
+      <c r="F22" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="16" t="s">
+      <c r="G22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
     <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>48</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="16" t="s">
-        <v>99</v>
+      <c r="D23" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="9" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="I24" s="18"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
+      <c r="D25" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
+      <c r="E26" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="26"/>
+      <c r="I26" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
+      <c r="D27" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="26"/>
+      <c r="I27" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>131</v>
+      <c r="D28" s="26"/>
+      <c r="E28" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="26"/>
+      <c r="I28" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" s="20" t="s">
+      <c r="D29" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="G29" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="F29" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
+      <c r="D30" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="16" t="s">
-        <v>105</v>
+      <c r="D31" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="26"/>
+      <c r="I31" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1688,20 +1691,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D76F07A-64A7-4822-BC71-65F8E1EA5E9F}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1714,15 +1720,20 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
